--- a/biology/Médecine/1473_en_santé_et_médecine/1473_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1473_en_santé_et_médecine/1473_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1473 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bâti en 1350, le plus ancien hôpital de Seurre, en Bourgogne, est détruit dans l'incendie allumé par les Suisses en guerre contre Charles le Téméraire[1].
-Le roi Louis XI accorde des statuts à la faculté de médecine de Bordeaux, créée en 1441 à la fondation de l'université, et il la dote d'une seconde chaire[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bâti en 1350, le plus ancien hôpital de Seurre, en Bourgogne, est détruit dans l'incendie allumé par les Suisses en guerre contre Charles le Téméraire.
+Le roi Louis XI accorde des statuts à la faculté de médecine de Bordeaux, créée en 1441 à la fondation de l'université, et il la dote d'une seconde chaire.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7 décembre : Barthélemy Metlinger (en) († 1491) publie le Kinderbüchlein (Petit livre des enfants), premier ouvrage de pédiatrie paru en allemand[3].
-Première édition, à Turin, du Tractatus de epidemia et peste de Velasco de Tarente (pt) († ap. 1426), écrit vers 1401 pour ses protecteurs, les comtes de Foix[4].
-Première édition des Synonyma medicinae sive Clavis sanationis de Simon de Gênes (XIIIe siècle), lexique des termes de médecine et de botanique[5].
-Ulrich Ellenbog (de) (c. 1435-1499), chirurgien à la cour du Tyrol, fait paraître son  traité « sur les vapeurs et les fumées toxiques » (Von den giftigen besen Tempffen und Reuchen), destiné aux forgerons d'Augsbourg et premier ouvrage connu de « médecine du travail[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 décembre : Barthélemy Metlinger (en) († 1491) publie le Kinderbüchlein (Petit livre des enfants), premier ouvrage de pédiatrie paru en allemand.
+Première édition, à Turin, du Tractatus de epidemia et peste de Velasco de Tarente (pt) († ap. 1426), écrit vers 1401 pour ses protecteurs, les comtes de Foix.
+Première édition des Synonyma medicinae sive Clavis sanationis de Simon de Gênes (XIIIe siècle), lexique des termes de médecine et de botanique.
+Ulrich Ellenbog (de) (c. 1435-1499), chirurgien à la cour du Tyrol, fait paraître son  traité « sur les vapeurs et les fumées toxiques » (Von den giftigen besen Tempffen und Reuchen), destiné aux forgerons d'Augsbourg et premier ouvrage connu de « médecine du travail ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1473-1485 : floruit Saadia Adani, à Damas et Safed, rabbin, médecin et philosophe yéménite, auteur de nombreux ouvrages dont certains de médecine, desquels il ne reste que des fragments[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1473-1485 : floruit Saadia Adani, à Damas et Safed, rabbin, médecin et philosophe yéménite, auteur de nombreux ouvrages dont certains de médecine, desquels il ne reste que des fragments.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>19 février : Nicolas Copernic (mort en 1543), clerc, médecin et astronome polonais[8].
-23 juillet : Joseph Grünpeck (mort après 1532)[9], humaniste allemand, auteur d'ouvrages traitant de médecine, dont deux sur la syphilis (1496 et 1503[10]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 février : Nicolas Copernic (mort en 1543), clerc, médecin et astronome polonais.
+23 juillet : Joseph Grünpeck (mort après 1532), humaniste allemand, auteur d'ouvrages traitant de médecine, dont deux sur la syphilis (1496 et 1503).
 Sans date précise :
-Francisco López de Villalobos (mort vers 1549), Juif castillan, converti au catholicisme, médecin à la cour du duc d'Albe, de Ferdinand le Catholique et de Charles Quint[11].</t>
+Francisco López de Villalobos (mort vers 1549), Juif castillan, converti au catholicisme, médecin à la cour du duc d'Albe, de Ferdinand le Catholique et de Charles Quint.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1473_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1473_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sigismond Polcastro (en) (né en 1384), professeur de médecine et de philosophie à Padoue[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sigismond Polcastro (en) (né en 1384), professeur de médecine et de philosophie à Padoue.</t>
         </is>
       </c>
     </row>
